--- a/Resources/miniRV-1指令总表.xlsx
+++ b/Resources/miniRV-1指令总表.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25427"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{769DCB6C-82DF-4DE2-A6E4-349F8ED87356}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12640" yWindow="500" windowWidth="26860" windowHeight="21820"/>
+    <workbookView xWindow="840" yWindow="-120" windowWidth="28080" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -1801,7 +1802,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="9">
     <font>
       <sz val="11"/>
@@ -1976,7 +1977,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1993,29 +1994,11 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2033,14 +2016,15 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2050,6 +2034,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2341,23 +2328,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:J47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="K31" sqref="K31"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="4" customWidth="1"/>
-    <col min="2" max="2" width="7.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.1640625" style="1" customWidth="1"/>
-    <col min="4" max="6" width="6.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.1640625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="45.1640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="7.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.125" style="1" customWidth="1"/>
+    <col min="4" max="6" width="6.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="8.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="45.125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:10">
@@ -2377,22 +2364,22 @@
       <c r="B3" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="14" t="s">
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="17" t="s">
         <v>75</v>
       </c>
       <c r="J3" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="2:10" ht="29">
+    <row r="4" spans="2:10" ht="30">
       <c r="B4" s="3" t="s">
         <v>0</v>
       </c>
@@ -2414,7 +2401,7 @@
       <c r="H4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="15"/>
+      <c r="I4" s="18"/>
       <c r="J4" s="7" t="s">
         <v>135</v>
       </c>
@@ -2444,7 +2431,7 @@
       <c r="I5" s="6"/>
       <c r="J5" s="6"/>
     </row>
-    <row r="6" spans="2:10" ht="14.5">
+    <row r="6" spans="2:10">
       <c r="B6" s="3" t="s">
         <v>13</v>
       </c>
@@ -2473,7 +2460,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="7" spans="2:10" ht="14.5">
+    <row r="7" spans="2:10">
       <c r="B7" s="3" t="s">
         <v>14</v>
       </c>
@@ -2502,7 +2489,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="8" spans="2:10" ht="14.5">
+    <row r="8" spans="2:10">
       <c r="B8" s="3" t="s">
         <v>15</v>
       </c>
@@ -2531,7 +2518,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="9" spans="2:10" ht="14.5">
+    <row r="9" spans="2:10">
       <c r="B9" s="3" t="s">
         <v>16</v>
       </c>
@@ -2560,7 +2547,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="10" spans="2:10" ht="14.5">
+    <row r="10" spans="2:10">
       <c r="B10" s="3" t="s">
         <v>17</v>
       </c>
@@ -2589,7 +2576,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="11" spans="2:10" ht="14.5">
+    <row r="11" spans="2:10">
       <c r="B11" s="3" t="s">
         <v>18</v>
       </c>
@@ -2618,7 +2605,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="12" spans="2:10" ht="14.5">
+    <row r="12" spans="2:10">
       <c r="B12" s="3" t="s">
         <v>19</v>
       </c>
@@ -2647,26 +2634,26 @@
         <v>103</v>
       </c>
     </row>
-    <row r="13" spans="2:10" ht="14.5">
-      <c r="B13" s="9" t="s">
+    <row r="13" spans="2:10">
+      <c r="B13" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="D13" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E13" s="9" t="s">
+      <c r="E13" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F13" s="9" t="s">
+      <c r="F13" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G13" s="9" t="s">
+      <c r="G13" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H13" s="9" t="s">
+      <c r="H13" s="3" t="s">
         <v>23</v>
       </c>
       <c r="I13" s="4" t="s">
@@ -2676,61 +2663,61 @@
         <v>105</v>
       </c>
     </row>
-    <row r="14" spans="2:10" ht="14.5">
-      <c r="B14" s="10" t="s">
+    <row r="14" spans="2:10">
+      <c r="B14" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C14" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D14" s="10" t="s">
+      <c r="D14" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="10" t="s">
+      <c r="E14" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F14" s="10" t="s">
+      <c r="F14" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="G14" s="10" t="s">
+      <c r="G14" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="H14" s="10" t="s">
+      <c r="H14" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="I14" s="11" t="s">
+      <c r="I14" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="J14" s="11" t="s">
+      <c r="J14" s="9" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="15" spans="2:10" ht="14.5">
-      <c r="B15" s="10" t="s">
+    <row r="15" spans="2:10">
+      <c r="B15" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="C15" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D15" s="10" t="s">
+      <c r="D15" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E15" s="10" t="s">
+      <c r="E15" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F15" s="10" t="s">
+      <c r="F15" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="G15" s="10" t="s">
+      <c r="G15" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="H15" s="10" t="s">
+      <c r="H15" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="I15" s="11" t="s">
+      <c r="I15" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="J15" s="11" t="s">
+      <c r="J15" s="9" t="s">
         <v>134</v>
       </c>
     </row>
@@ -2738,10 +2725,10 @@
       <c r="B16" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C16" s="18" t="s">
+      <c r="C16" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="D16" s="18"/>
+      <c r="D16" s="12"/>
       <c r="E16" s="5" t="s">
         <v>9</v>
       </c>
@@ -2757,14 +2744,14 @@
       <c r="I16" s="6"/>
       <c r="J16" s="6"/>
     </row>
-    <row r="17" spans="2:10" ht="14.5">
+    <row r="17" spans="2:10">
       <c r="B17" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C17" s="17" t="s">
+      <c r="C17" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="D17" s="17"/>
+      <c r="D17" s="11"/>
       <c r="E17" s="3" t="s">
         <v>9</v>
       </c>
@@ -2784,14 +2771,14 @@
         <v>82</v>
       </c>
     </row>
-    <row r="18" spans="2:10" ht="14.5">
+    <row r="18" spans="2:10">
       <c r="B18" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C18" s="17" t="s">
+      <c r="C18" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="D18" s="17"/>
+      <c r="D18" s="11"/>
       <c r="E18" s="3" t="s">
         <v>9</v>
       </c>
@@ -2811,14 +2798,14 @@
         <v>83</v>
       </c>
     </row>
-    <row r="19" spans="2:10" ht="14.5">
+    <row r="19" spans="2:10">
       <c r="B19" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C19" s="17" t="s">
+      <c r="C19" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="D19" s="17"/>
+      <c r="D19" s="11"/>
       <c r="E19" s="3" t="s">
         <v>9</v>
       </c>
@@ -2838,14 +2825,14 @@
         <v>94</v>
       </c>
     </row>
-    <row r="20" spans="2:10" ht="14.5">
+    <row r="20" spans="2:10">
       <c r="B20" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C20" s="17" t="s">
+      <c r="C20" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="D20" s="17"/>
+      <c r="D20" s="11"/>
       <c r="E20" s="3" t="s">
         <v>9</v>
       </c>
@@ -2865,7 +2852,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="21" spans="2:10" ht="14.5">
+    <row r="21" spans="2:10">
       <c r="B21" s="3" t="s">
         <v>46</v>
       </c>
@@ -2894,7 +2881,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="22" spans="2:10" ht="14.5">
+    <row r="22" spans="2:10">
       <c r="B22" s="3" t="s">
         <v>47</v>
       </c>
@@ -2923,7 +2910,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="23" spans="2:10" ht="14.5">
+    <row r="23" spans="2:10">
       <c r="B23" s="3" t="s">
         <v>48</v>
       </c>
@@ -2952,176 +2939,176 @@
         <v>104</v>
       </c>
     </row>
-    <row r="24" spans="2:10" ht="14.5">
-      <c r="B24" s="10" t="s">
+    <row r="24" spans="2:10">
+      <c r="B24" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="C24" s="13" t="s">
+      <c r="C24" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D24" s="13"/>
-      <c r="E24" s="10" t="s">
+      <c r="D24" s="10"/>
+      <c r="E24" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F24" s="10" t="s">
+      <c r="F24" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="G24" s="10" t="s">
+      <c r="G24" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="H24" s="10" t="s">
+      <c r="H24" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="I24" s="11" t="s">
+      <c r="I24" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="J24" s="11" t="s">
+      <c r="J24" s="9" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="25" spans="2:10" ht="14.5">
-      <c r="B25" s="10" t="s">
+    <row r="25" spans="2:10">
+      <c r="B25" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="C25" s="13" t="s">
+      <c r="C25" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D25" s="13"/>
-      <c r="E25" s="10" t="s">
+      <c r="D25" s="10"/>
+      <c r="E25" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F25" s="10" t="s">
+      <c r="F25" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="G25" s="10" t="s">
+      <c r="G25" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="H25" s="10" t="s">
+      <c r="H25" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="I25" s="11" t="s">
+      <c r="I25" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="J25" s="11" t="s">
+      <c r="J25" s="9" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="26" spans="2:10" ht="14.5">
-      <c r="B26" s="10" t="s">
+    <row r="26" spans="2:10">
+      <c r="B26" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="C26" s="13" t="s">
+      <c r="C26" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D26" s="13"/>
-      <c r="E26" s="10" t="s">
+      <c r="D26" s="10"/>
+      <c r="E26" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F26" s="10" t="s">
+      <c r="F26" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="G26" s="10" t="s">
+      <c r="G26" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="H26" s="10" t="s">
+      <c r="H26" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="I26" s="11" t="s">
+      <c r="I26" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="J26" s="11" t="s">
+      <c r="J26" s="9" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="27" spans="2:10" ht="14.5" customHeight="1">
-      <c r="B27" s="22" t="s">
+    <row r="27" spans="2:10" ht="14.45" customHeight="1">
+      <c r="B27" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="C27" s="13" t="s">
+      <c r="C27" s="10" t="s">
         <v>163</v>
       </c>
-      <c r="D27" s="13"/>
-      <c r="E27" s="22" t="s">
+      <c r="D27" s="10"/>
+      <c r="E27" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="F27" s="22" t="s">
+      <c r="F27" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="G27" s="22" t="s">
+      <c r="G27" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="H27" s="22" t="s">
+      <c r="H27" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="I27" s="23" t="s">
+      <c r="I27" s="9" t="s">
         <v>168</v>
       </c>
-      <c r="J27" s="23" t="s">
+      <c r="J27" s="9" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="28" spans="2:10" ht="14.5">
-      <c r="B28" s="10" t="s">
+    <row r="28" spans="2:10">
+      <c r="B28" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="C28" s="13" t="s">
+      <c r="C28" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D28" s="13"/>
-      <c r="E28" s="10" t="s">
+      <c r="D28" s="10"/>
+      <c r="E28" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F28" s="10" t="s">
+      <c r="F28" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G28" s="10" t="s">
+      <c r="G28" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="H28" s="10" t="s">
+      <c r="H28" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="I28" s="11" t="s">
+      <c r="I28" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="J28" s="11" t="s">
+      <c r="J28" s="9" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="29" spans="2:10" ht="14.5">
-      <c r="B29" s="24" t="s">
+    <row r="29" spans="2:10">
+      <c r="B29" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="C29" s="13" t="s">
+      <c r="C29" s="10" t="s">
         <v>163</v>
       </c>
-      <c r="D29" s="13"/>
-      <c r="E29" s="24" t="s">
+      <c r="D29" s="10"/>
+      <c r="E29" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="F29" s="24" t="s">
+      <c r="F29" s="8" t="s">
         <v>171</v>
       </c>
-      <c r="G29" s="24" t="s">
+      <c r="G29" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="H29" s="24" t="s">
+      <c r="H29" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="I29" s="25" t="s">
+      <c r="I29" s="9" t="s">
         <v>172</v>
       </c>
-      <c r="J29" s="25" t="s">
+      <c r="J29" s="9" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="30" spans="2:10" ht="14.5">
+    <row r="30" spans="2:10">
       <c r="B30" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C30" s="17" t="s">
+      <c r="C30" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="D30" s="17"/>
+      <c r="D30" s="11"/>
       <c r="E30" s="3" t="s">
         <v>9</v>
       </c>
@@ -3141,14 +3128,14 @@
         <v>88</v>
       </c>
     </row>
-    <row r="31" spans="2:10" ht="14.5">
+    <row r="31" spans="2:10">
       <c r="B31" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C31" s="17" t="s">
+      <c r="C31" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="D31" s="17"/>
+      <c r="D31" s="11"/>
       <c r="E31" s="3" t="s">
         <v>9</v>
       </c>
@@ -3193,65 +3180,65 @@
       <c r="I32" s="6"/>
       <c r="J32" s="6"/>
     </row>
-    <row r="33" spans="2:10" ht="14.5">
-      <c r="B33" s="10" t="s">
+    <row r="33" spans="2:10">
+      <c r="B33" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="C33" s="10" t="s">
+      <c r="C33" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="D33" s="10" t="s">
+      <c r="D33" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E33" s="10" t="s">
+      <c r="E33" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F33" s="10" t="s">
+      <c r="F33" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="G33" s="10" t="s">
+      <c r="G33" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="H33" s="10" t="s">
+      <c r="H33" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="I33" s="11" t="s">
+      <c r="I33" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="J33" s="11" t="s">
+      <c r="J33" s="9" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="34" spans="2:10" ht="14.5">
-      <c r="B34" s="10" t="s">
+    <row r="34" spans="2:10">
+      <c r="B34" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="C34" s="10" t="s">
+      <c r="C34" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="D34" s="10" t="s">
+      <c r="D34" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E34" s="10" t="s">
+      <c r="E34" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F34" s="10" t="s">
+      <c r="F34" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G34" s="10" t="s">
+      <c r="G34" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="H34" s="10" t="s">
+      <c r="H34" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="I34" s="11" t="s">
+      <c r="I34" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="J34" s="11" t="s">
+      <c r="J34" s="9" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="35" spans="2:10" ht="14.5">
+    <row r="35" spans="2:10">
       <c r="B35" s="3" t="s">
         <v>54</v>
       </c>
@@ -3305,7 +3292,7 @@
       <c r="I36" s="6"/>
       <c r="J36" s="6"/>
     </row>
-    <row r="37" spans="2:10" ht="14.5">
+    <row r="37" spans="2:10">
       <c r="B37" s="3" t="s">
         <v>60</v>
       </c>
@@ -3334,26 +3321,26 @@
         <v>137</v>
       </c>
     </row>
-    <row r="38" spans="2:10" ht="14.5">
-      <c r="B38" s="8" t="s">
+    <row r="38" spans="2:10">
+      <c r="B38" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="C38" s="8" t="s">
+      <c r="C38" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D38" s="8" t="s">
+      <c r="D38" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E38" s="8" t="s">
+      <c r="E38" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F38" s="8" t="s">
+      <c r="F38" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G38" s="8" t="s">
+      <c r="G38" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="H38" s="8" t="s">
+      <c r="H38" s="3" t="s">
         <v>69</v>
       </c>
       <c r="I38" s="4" t="s">
@@ -3363,7 +3350,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="39" spans="2:10" ht="14.5">
+    <row r="39" spans="2:10">
       <c r="B39" s="3" t="s">
         <v>61</v>
       </c>
@@ -3392,55 +3379,55 @@
         <v>139</v>
       </c>
     </row>
-    <row r="40" spans="2:10" ht="14.5">
-      <c r="B40" s="10" t="s">
+    <row r="40" spans="2:10">
+      <c r="B40" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="C40" s="10" t="s">
+      <c r="C40" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="D40" s="10" t="s">
+      <c r="D40" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E40" s="10" t="s">
+      <c r="E40" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F40" s="10" t="s">
+      <c r="F40" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="G40" s="10" t="s">
+      <c r="G40" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="H40" s="10" t="s">
+      <c r="H40" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="I40" s="11" t="s">
+      <c r="I40" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="J40" s="11" t="s">
+      <c r="J40" s="9" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="41" spans="2:10" ht="14.5">
-      <c r="B41" s="9" t="s">
+    <row r="41" spans="2:10">
+      <c r="B41" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="C41" s="9" t="s">
+      <c r="C41" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D41" s="9" t="s">
+      <c r="D41" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E41" s="9" t="s">
+      <c r="E41" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F41" s="9" t="s">
+      <c r="F41" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G41" s="9" t="s">
+      <c r="G41" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="H41" s="9" t="s">
+      <c r="H41" s="3" t="s">
         <v>69</v>
       </c>
       <c r="I41" s="4" t="s">
@@ -3450,32 +3437,32 @@
         <v>140</v>
       </c>
     </row>
-    <row r="42" spans="2:10" ht="14.5">
-      <c r="B42" s="10" t="s">
+    <row r="42" spans="2:10">
+      <c r="B42" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="C42" s="10" t="s">
+      <c r="C42" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="D42" s="10" t="s">
+      <c r="D42" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E42" s="10" t="s">
+      <c r="E42" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F42" s="10" t="s">
+      <c r="F42" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="G42" s="10" t="s">
+      <c r="G42" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="H42" s="10" t="s">
+      <c r="H42" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="I42" s="11" t="s">
+      <c r="I42" s="9" t="s">
         <v>154</v>
       </c>
-      <c r="J42" s="11" t="s">
+      <c r="J42" s="9" t="s">
         <v>160</v>
       </c>
     </row>
@@ -3483,12 +3470,12 @@
       <c r="B43" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C43" s="18" t="s">
+      <c r="C43" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="D43" s="18"/>
-      <c r="E43" s="18"/>
-      <c r="F43" s="18"/>
+      <c r="D43" s="12"/>
+      <c r="E43" s="12"/>
+      <c r="F43" s="12"/>
       <c r="G43" s="5" t="s">
         <v>65</v>
       </c>
@@ -3498,16 +3485,16 @@
       <c r="I43" s="6"/>
       <c r="J43" s="6"/>
     </row>
-    <row r="44" spans="2:10" ht="14.5">
+    <row r="44" spans="2:10">
       <c r="B44" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C44" s="17" t="s">
+      <c r="C44" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="D44" s="17"/>
-      <c r="E44" s="17"/>
-      <c r="F44" s="17"/>
+      <c r="D44" s="11"/>
+      <c r="E44" s="11"/>
+      <c r="F44" s="11"/>
       <c r="G44" s="3" t="s">
         <v>11</v>
       </c>
@@ -3521,26 +3508,26 @@
         <v>90</v>
       </c>
     </row>
-    <row r="45" spans="2:10" ht="14.5">
-      <c r="B45" s="12" t="s">
+    <row r="45" spans="2:10">
+      <c r="B45" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="C45" s="19" t="s">
+      <c r="C45" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="D45" s="20"/>
-      <c r="E45" s="20"/>
-      <c r="F45" s="21"/>
-      <c r="G45" s="12" t="s">
+      <c r="D45" s="14"/>
+      <c r="E45" s="14"/>
+      <c r="F45" s="15"/>
+      <c r="G45" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="H45" s="12" t="s">
+      <c r="H45" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="I45" s="11" t="s">
+      <c r="I45" s="9" t="s">
         <v>159</v>
       </c>
-      <c r="J45" s="11" t="s">
+      <c r="J45" s="9" t="s">
         <v>161</v>
       </c>
     </row>
@@ -3548,12 +3535,12 @@
       <c r="B46" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C46" s="18" t="s">
+      <c r="C46" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="D46" s="18"/>
-      <c r="E46" s="18"/>
-      <c r="F46" s="18"/>
+      <c r="D46" s="12"/>
+      <c r="E46" s="12"/>
+      <c r="F46" s="12"/>
       <c r="G46" s="5" t="s">
         <v>66</v>
       </c>
@@ -3563,16 +3550,16 @@
       <c r="I46" s="6"/>
       <c r="J46" s="6"/>
     </row>
-    <row r="47" spans="2:10" ht="14.5">
+    <row r="47" spans="2:10">
       <c r="B47" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C47" s="17" t="s">
+      <c r="C47" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="D47" s="17"/>
-      <c r="E47" s="17"/>
-      <c r="F47" s="17"/>
+      <c r="D47" s="11"/>
+      <c r="E47" s="11"/>
+      <c r="F47" s="11"/>
       <c r="G47" s="3" t="s">
         <v>11</v>
       </c>
@@ -3588,6 +3575,19 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="B2:J2"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C3:H3"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
     <mergeCell ref="C29:D29"/>
     <mergeCell ref="C47:F47"/>
     <mergeCell ref="C30:D30"/>
@@ -3596,19 +3596,6 @@
     <mergeCell ref="C46:F46"/>
     <mergeCell ref="C44:F44"/>
     <mergeCell ref="C45:F45"/>
-    <mergeCell ref="B2:J2"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C3:H3"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="C27:D27"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
